--- a/data.xlsx
+++ b/data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
-    <sheet name="проверка" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,45 +27,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>номер</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Зп</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Агеева</t>
-  </si>
-  <si>
-    <t>Арефьева</t>
-  </si>
-  <si>
-    <t>Якимец</t>
-  </si>
-  <si>
-    <t>Васильев</t>
-  </si>
-  <si>
-    <t>Смирнов</t>
-  </si>
-  <si>
-    <t>Павлова</t>
-  </si>
-  <si>
-    <t>Илюхин</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+  <si>
+    <t>ктк / ам</t>
+  </si>
+  <si>
+    <t>B269OT177/BM032077</t>
+  </si>
+  <si>
+    <t>ТП ЕЛС</t>
+  </si>
+  <si>
+    <t>ТП РСТК</t>
+  </si>
+  <si>
+    <t>Сумма РСТК</t>
+  </si>
+  <si>
+    <t>Сумма Лион</t>
+  </si>
+  <si>
+    <t>Баланс</t>
+  </si>
+  <si>
+    <t>РСТК</t>
+  </si>
+  <si>
+    <t>НАШИ</t>
+  </si>
+  <si>
+    <t>10013160/130920/0493176</t>
+  </si>
+  <si>
+    <t>H081KB60/HH046160</t>
+  </si>
+  <si>
+    <t>10013160/140920/0495111</t>
+  </si>
+  <si>
+    <t>A356KB60/BB727260</t>
+  </si>
+  <si>
+    <t>10013160/170920/0505036</t>
+  </si>
+  <si>
+    <t>O317OC97/BM037377</t>
+  </si>
+  <si>
+    <t>10013160/200920/0509628</t>
+  </si>
+  <si>
+    <t>T901KB60/OO034960</t>
+  </si>
+  <si>
+    <t>10013160/140920/0493537</t>
+  </si>
+  <si>
+    <t>T897KB60/OO034760</t>
+  </si>
+  <si>
+    <t>10013160/210920/0512221</t>
+  </si>
+  <si>
+    <t>M269OP197/782YHM</t>
+  </si>
+  <si>
+    <t>10013160/210920/0512308</t>
+  </si>
+  <si>
+    <t>T895KB60/OO035060</t>
+  </si>
+  <si>
+    <t>10013160/240920/0520493</t>
+  </si>
+  <si>
+    <t>H077KB60/OO037660</t>
+  </si>
+  <si>
+    <t>10013160/260920/0525727</t>
+  </si>
+  <si>
+    <t>Y120KY60/AA578360</t>
+  </si>
+  <si>
+    <t>10013160/260920/0525774</t>
+  </si>
+  <si>
+    <t>Y313KY60/HH046360</t>
+  </si>
+  <si>
+    <t>10013160/270920/0526613</t>
+  </si>
+  <si>
+    <t>A369KB60/HH047960</t>
+  </si>
+  <si>
+    <t>10013160/280920/0528945</t>
+  </si>
+  <si>
+    <t>T893KB60/OO034860</t>
+  </si>
+  <si>
+    <t>10013160/280920/0528907</t>
+  </si>
+  <si>
+    <t>X120YO777/EK509077</t>
+  </si>
+  <si>
+    <t>10013160/280920/0528752</t>
+  </si>
+  <si>
+    <t>C079MO199/BH723177</t>
+  </si>
+  <si>
+    <t>10013160/260920/0525824</t>
+  </si>
+  <si>
+    <t>К154КК60/АА131360</t>
+  </si>
+  <si>
+    <t>10013160/280920/0529159</t>
+  </si>
+  <si>
+    <t>М020PY777/EK652077</t>
+  </si>
+  <si>
+    <t>10013160/011020/0538266</t>
+  </si>
+  <si>
+    <t>T105OT197/950YHM</t>
+  </si>
+  <si>
+    <t>10013160/041020/0544150</t>
+  </si>
+  <si>
+    <t>К158КК60/АА131460</t>
+  </si>
+  <si>
+    <t>10013160/121020/0564484</t>
+  </si>
+  <si>
+    <t>Y300KY60/AA578160</t>
+  </si>
+  <si>
+    <t>10013160/151020/0573995</t>
+  </si>
+  <si>
+    <t>10013160/271020/0601893</t>
+  </si>
+  <si>
+    <t>K154KK60/AA131360</t>
+  </si>
+  <si>
+    <t>10013160/271020/0601865</t>
+  </si>
+  <si>
+    <t>О321ОС97/ВМ033577</t>
+  </si>
+  <si>
+    <t>В282OT177/ВЕ827877</t>
+  </si>
+  <si>
+    <t>10013160/281020/0606490</t>
   </si>
 </sst>
 </file>
@@ -75,24 +198,39 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,19 +238,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -124,7 +400,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,14 +438,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -202,9 +478,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -234,7 +510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,136 +660,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G23" si="0">E2-F2</f>
+        <v>6500</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" ref="I2:I23" si="1">G2-H2</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11">
+        <v>10500</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>139000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
+        <v>10500</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>121000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>87000</v>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="4">
+        <v>2542729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G26" s="4">
+        <f>E26-F26</f>
+        <v>6500</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26-H26</f>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
